--- a/nodejs/sequelize-demo/write.xlsx
+++ b/nodejs/sequelize-demo/write.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangrui/git/jiangrui/web/vue-demo/nodejs/sequelize-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B34668F-36A4-6B49-9BB3-9DC4B8D99F59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE329758-C14F-084F-9323-5A846B1F7E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37680" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>sheetjs</t>
-  </si>
-  <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>baz</t>
-  </si>
-  <si>
-    <t>qux</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>我很好xxx太好了</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
+  <si>
+    <t>单选题</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>多选题</t>
+  </si>
+  <si>
+    <t>B,D</t>
+  </si>
+  <si>
+    <t>A,C</t>
+  </si>
+  <si>
+    <t>A,D</t>
+  </si>
+  <si>
+    <t>TCP/IP协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP协议提供了一种在点对点链路上封装多种数据报文的标准方法。PPP协议的运行过 （ ）阶段。
+A、链路不可用
+B、认证
+C、完全连接
+D、认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP协议支持IP 地址协商功能，要实现当PPP连接建立后，由本地路由器为对端路由器动态分配一个IP地址，应该使用的配置命令是 （ ）
+A、在本地路由器上使用命令 peer default ip address ip_address
+B、在对端路由器上使用命令 peer default ip address ip_address
+C、在本地路由器上使用命令 ip address negotiated
+D、在对端路由器上使用命令 ip address negotiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于使用PPP协议拨号接入Internet的过程，下列描述正确的是（ ）。
+A、当用户PC拨号接入ISP时，接入服务器的Modem对拨号做出应答，并建立一条物理连接
+B、物理连接建立后，PC会向接入服务器发送一系列的NCP报文，以获取一个临时的IP地址
+C、NCP协商完成后，开始LCP的协商，选择PPP连接的参数，就可以开始传输数据了
+D、用户通信完毕后，首先释放网络层连接，再释放数据链路层连接，最后释放物理层连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP协议支持两种认证方式：PAP认证和CHAP认证，以下关于CHAP认证的说法正确的是（ ）。
+A、CHAP认证只在网络上传送用户名而不传送口令
+B、CHAP认证也可以由被认证方主动发起认证请求
+C、CHAP认证时两端的密码必须一致
+D、CHAP认证过程中的hash值是由用户名，密码和随机数据计算产生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP协议是在点对点链路上承载网络层数据包的一种广域网数据链路层协议，以下说法正确的是（ ）
+A、PPP协议只能用于点对点的同步串行链路上
+B、PPP协议具有认证机制
+C、PPP协议分为LCP子层和NCP子层，NCP负责建立点对点的连接，LCP负责协商上层协议
+D、不同厂商的路由器上运行的PPP协议都是兼容的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组播协议的关键问题之一就是如何建立一棵适应应用需求的组播树。 () 协议使用了反向路径组播机制来构建组播树。
+A、PIDM
+B、PISM
+C、MOSPF
+D、DVMRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP协议的4层概念模型是？
+A、应用层、传输层、网络层和网络接口层
+B、应用层、传输层、网络层和物理层
+C、应用层、数据链路层、网络层和网络接口层
+D、会话层、数据链路层、网络层和网络接口层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP是（）。                    注释：支持异种计算机网络互联的协议
+A、一种网络操作系统
+B、一个网络地址
+C、一种网络通信协议
+D、一个网络部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP协议的认证方式中，（ ）不是PAP认证和CHAP认证的区别。
+A、PAP认证过程时两次握手，而CHAP认证时三次握手
+B、PAP认证是由被认证方发起请求，而CHAP认证是由主认证方发起请求
+C、PAP认证是靠被认证方发送明文用户名和密码来完成认证的，而CHAP认证是靠被认证方发送密文用户名和密码来完成认证的
+D、CHAP认证比PAP认证的安全性高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下（ ）协议将PPP报文封装在以太网帧内，从而在因特网上实现了点对点连接。
+A、MPoA协议
+B、IPoA协议
+C、PPPoA协议
+D、PPPoE协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在TCP/IP协议栈中，ARP协议的作用是（请作答此空）,RARP协议的作用是（）。
+A、从MAC地址查找对应的IP地址
+B、有IP地址查找对应的MAC地址
+C、把全局IP地址转换为私网中的专用IP地址
+D、用于动态分配IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP协议用于()电子邮件。
+A、接收
+B、发送
+C、丢弃
+D、阻挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP头和TCP头的最小开销合计为40字节，以太网最大帧长为1518字节，则可以传送的TCP数据最大为()字节。
+A、1434
+B、1460
+C、1480
+D、1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP协议分为四层，分别为应用层、传输层、网际层和网络接口层属于网际层协议的是 （ ） 。
+A、RPC
+B、UDP
+C、TCP
+D、 IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP协议分为四层，分别为应用层、传输层、网际层和网络接口层。不属于应用层协议的是 （ ）
+A、SNMP
+B、UDP
+C、 TELNET
+D、 FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 协议属于（  ）。
+A、物理层协议&lt;br/&gt;
+B、传输层协议&lt;br/&gt;
+C、网络层协议&lt;br/&gt;
+D、应用层协议&lt;br/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在TCP/IP协议分层结构中，SNMP是在 （ ） 协议之上的异步请求/响应协议。
+A、TCP
+B、IP
+C、UDP
+D、FTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照TCP/IP协议， （ ） 不属于网络层的功能。
+A、路由
+B、异构网互联
+C、数据可靠性校验
+D、拥塞控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP是Internet采用的协议标准，它是一个协议系列，由多个不同层次的协议共同组成。
+其中_____是属于网络层的低层协议，主要用途是完成网络地址向物理地址的转换。
+A、RARP
+B、ARP
+C、IGMP
+D、ICMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAP协议是PPP链路中采用的一种身份认证协议，这种协议采用三次握手方式周期性的验证通信对方的身份，
+当认证服务器发出一个挑战报文时，则终端就计算该报文的()并把结果返回服务器。
+A、密码
+B、补码
+C、CHAP值
+D、HASH值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -86,10 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,68 +602,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="1" spans="1:6" ht="80">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="80">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="80">
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>41689.937997685185</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="96">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" ht="80">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="80">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="96">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="80">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="80">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="80">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="80">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="130" customHeight="1">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="80">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="80">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="15" spans="1:6" ht="115" customHeight="1">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="80">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="80">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="80">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" customHeight="1">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="80">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:D5" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A20 A1 C1 C2 C20 E20:F20 C19 E19:F19 C18 E18:F18 C17 E17:F17 C16 E16:F16 C15 E15:F15 C14 E14:F14 C13 E13:F13 C12 E12:F12 C11 E11:F11 C10 E10:F10 C9 E9:F9 C8 E8:F8 C7 E7:F7 C6 E6:F6 C5 E5:F5 C4 E4:F4 C3 E3:F3 E2:F2 E1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>